--- a/1.0/src/main/resources/Task List.xlsx
+++ b/1.0/src/main/resources/Task List.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>AA001</t>
   </si>
@@ -598,7 +598,9 @@
       <c r="C3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
@@ -611,7 +613,9 @@
       <c r="C4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -624,7 +628,9 @@
       <c r="C5" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
@@ -637,7 +643,9 @@
       <c r="C6" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
@@ -650,7 +658,9 @@
       <c r="C7" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
@@ -663,7 +673,9 @@
       <c r="C8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">

--- a/1.0/src/main/resources/Task List.xlsx
+++ b/1.0/src/main/resources/Task List.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>AA001</t>
   </si>
@@ -688,7 +688,9 @@
       <c r="C9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
@@ -701,7 +703,9 @@
       <c r="C10" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
@@ -714,7 +718,9 @@
       <c r="C11" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
@@ -727,7 +733,9 @@
       <c r="C12" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">

--- a/1.0/src/main/resources/Task List.xlsx
+++ b/1.0/src/main/resources/Task List.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BEC0D-F329-4C0D-A794-83527470DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79BCD05-9C74-48BA-9DC2-6594793B2316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2D22ED07-0991-4DF3-8876-92F55009DF08}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>AA001</t>
   </si>
@@ -100,21 +100,6 @@
     <t>.mp4</t>
   </si>
   <si>
-    <t>F:\Social media\Quizzer\Final Videos\</t>
-  </si>
-  <si>
-    <t>Hellllloooooo1</t>
-  </si>
-  <si>
-    <t>Hellllloooooo2</t>
-  </si>
-  <si>
-    <t>Hellllloooooo3</t>
-  </si>
-  <si>
-    <t>Hellllloooooo4</t>
-  </si>
-  <si>
     <t>Hellllloooooo5</t>
   </si>
   <si>
@@ -178,14 +163,29 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Done</t>
+    <t>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\</t>
+  </si>
+  <si>
+    <t>Follow for more
+.
+.
+#QuizTime #PuzzleChallenge #BrainTeasers #MindGames #QuizOfTheDay #PuzzleOfTheDay #AptitudeTest #LogicalReasoning #IQTest #RiddleMeThis #BrainWorkout #MentalExercise #TriviaTime #QuizMaster #PuzzleLovers #MindPuzzles #BrainChallenge #QuizAddict #SolveThePuzzle #BrainTeaserChallenge</t>
+  </si>
+  <si>
+    <t>Follow for more
+.
+.</t>
+  </si>
+  <si>
+    <t>.Follow for more
+.
+.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,10 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,320 +545,299 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="49.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="89.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>_xlfn.CONCAT($F$2,A2,$G$2)</f>
-        <v>F:\Social media\Quizzer\Final Videos\AA001.mp4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s" s="0">
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA001.mp4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>_xlfn.CONCAT($F$2,A3,$G$2)</f>
-        <v>F:\Social media\Quizzer\Final Videos\AA002.mp4</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA002.mp4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ref="B4:B21" si="0">_xlfn.CONCAT($F$2,A4,$G$2)</f>
-        <v>F:\Social media\Quizzer\Final Videos\AA003.mp4</v>
-      </c>
-      <c r="C4" t="s" s="0">
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA003.mp4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA004.mp4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA005.mp4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA006.mp4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA007.mp4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA008.mp4</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA004.mp4</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA009.mp4</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA005.mp4</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA010.mp4</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA006.mp4</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA011.mp4</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA007.mp4</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA012.mp4</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA008.mp4</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA013.mp4</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA009.mp4</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA014.mp4</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA010.mp4</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA015.mp4</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA011.mp4</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA016.mp4</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA012.mp4</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA017.mp4</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA013.mp4</v>
-      </c>
-      <c r="C14" t="s" s="0">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA018.mp4</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA014.mp4</v>
-      </c>
-      <c r="C15" t="s" s="0">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA019.mp4</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA015.mp4</v>
-      </c>
-      <c r="C16" t="s" s="0">
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\atult\git\IG-Reel-post\1.0\src\main\resources\Quizzer videos\AA020.mp4</v>
+      </c>
+      <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA016.mp4</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA017.mp4</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA018.mp4</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA019.mp4</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>F:\Social media\Quizzer\Final Videos\AA020.mp4</v>
-      </c>
-      <c r="C21" t="s" s="0">
+      <c r="D21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
